--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -247,6 +247,120 @@
   </si>
   <si>
     <t>TG102SE</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30031</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180320</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20075</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,31003</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21675</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Lỗi moudule GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181025</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21575</t>
+  </si>
+  <si>
+    <t>Cháy led GSM</t>
+  </si>
+  <si>
+    <t>Thay led GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30010</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>203.162.69.18,17882</t>
+  </si>
+  <si>
+    <t>Cháy led driver</t>
+  </si>
+  <si>
+    <t>Thay led, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Không quẹt được thẻ</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20775</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21775</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1132,8 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showZeros="0" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1248,16 +1362,32 @@
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="I6" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
       <c r="U6" s="83" t="s">
@@ -1288,17 +1418,35 @@
       <c r="G7" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="H7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="42"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
       <c r="U7" s="84"/>
@@ -1328,16 +1476,30 @@
         <v>61</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="K8" s="52"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="N8" s="42"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
       <c r="U8" s="84"/>
@@ -1366,17 +1528,35 @@
       <c r="G9" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="N9" s="42"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="P9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="84"/>
@@ -1406,16 +1586,30 @@
         <v>64</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="42"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="84"/>
@@ -1443,16 +1637,30 @@
         <v>61</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="84"/>
@@ -1482,16 +1690,32 @@
         <v>61</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="P12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="83" t="s">
@@ -1731,7 +1955,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1763,7 +1987,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1795,7 +2019,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1944,7 +2168,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2072,7 +2296,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2104,7 +2328,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2200,7 +2424,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2232,7 +2456,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2264,7 +2488,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2617,7 +2841,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -2871,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3101,17 +3325,33 @@
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>72</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="T6" s="73"/>
       <c r="U6" s="83" t="s">
         <v>18</v>
@@ -3142,16 +3382,32 @@
         <v>61</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="40"/>
+      <c r="I7" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
+      <c r="M7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="42">
+        <v>220000</v>
+      </c>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
       <c r="U7" s="84"/>
@@ -3568,7 +3824,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3600,7 +3856,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3749,7 +4005,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -3877,7 +4133,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4005,7 +4261,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4069,7 +4325,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4676,8 +4932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4906,16 +5162,30 @@
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>70</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
       <c r="U6" s="83" t="s">
@@ -5331,7 +5601,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5800,7 +6070,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5864,7 +6134,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -784,9 +787,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -806,21 +824,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1132,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1165,43 +1168,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1246,58 +1249,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1322,23 +1325,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1381,9 @@
         <v>93</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
       </c>
@@ -1390,7 +1395,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1437,7 +1442,9 @@
         <v>38</v>
       </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>76</v>
       </c>
@@ -1449,7 +1456,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1490,7 +1497,9 @@
         <v>96</v>
       </c>
       <c r="N8" s="42"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P8" s="40" t="s">
         <v>76</v>
       </c>
@@ -1502,7 +1511,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1556,9 @@
         <v>102</v>
       </c>
       <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
+      <c r="O9" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P9" s="40" t="s">
         <v>76</v>
       </c>
@@ -1559,7 +1570,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1612,7 +1623,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1651,7 +1662,9 @@
         <v>106</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
+      <c r="O11" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>76</v>
       </c>
@@ -1663,7 +1676,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1706,7 +1719,9 @@
         <v>100</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
+      <c r="O12" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1718,7 +1733,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1749,7 +1764,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1778,7 +1793,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1822,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1851,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3067,13 +3082,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3085,6 +3093,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3095,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showZeros="0" topLeftCell="G2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3128,43 +3143,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -3209,58 +3224,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3285,23 +3300,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3339,7 +3354,9 @@
         <v>75</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
       </c>
@@ -3353,7 +3370,7 @@
         <v>79</v>
       </c>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3410,7 +3427,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3439,7 +3456,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3468,7 +3485,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3497,7 +3514,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3526,7 +3543,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3555,7 +3572,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3586,7 +3603,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3615,7 +3632,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3644,7 +3661,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3673,7 +3690,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4904,6 +4921,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4915,13 +4939,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4932,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4965,43 +4982,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -5046,58 +5063,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5122,23 +5139,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,7 +5193,9 @@
         <v>38</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
       </c>
@@ -5188,7 +5207,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5219,7 +5238,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5248,7 +5267,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5277,7 +5296,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5306,7 +5325,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5335,7 +5354,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5364,7 +5383,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5395,7 +5414,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5424,7 +5443,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5453,7 +5472,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5482,7 +5501,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6713,6 +6732,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6724,13 +6750,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6774,43 +6793,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6855,58 +6874,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6931,23 +6950,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,7 +6992,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7004,7 +7023,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7033,7 +7052,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7062,7 +7081,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7091,7 +7110,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7120,7 +7139,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7149,7 +7168,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7180,7 +7199,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7209,7 +7228,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7238,7 +7257,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7267,7 +7286,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8498,6 +8517,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8509,13 +8535,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,13 +685,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,14 +709,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,22 +775,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,6 +797,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,21 +1123,21 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showZeros="0" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1168,46 +1156,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1225,14 +1213,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="56"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1249,100 +1237,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1365,13 +1353,13 @@
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="49" t="s">
         <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="58" t="s">
         <v>90</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1380,7 +1368,7 @@
       <c r="M6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>108</v>
       </c>
@@ -1394,14 +1382,14 @@
         <v>78</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1426,7 +1414,7 @@
       <c r="H7" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="49" t="s">
         <v>104</v>
       </c>
       <c r="J7" s="40" t="s">
@@ -1441,7 +1429,7 @@
       <c r="M7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>108</v>
       </c>
@@ -1455,12 +1443,12 @@
         <v>24</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1483,20 +1471,20 @@
         <v>61</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="49" t="s">
         <v>94</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="52"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="40" t="s">
         <v>83</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
         <v>108</v>
       </c>
@@ -1510,12 +1498,12 @@
         <v>23</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1540,7 +1528,7 @@
       <c r="H9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="49" t="s">
         <v>86</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1555,7 +1543,7 @@
       <c r="M9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="40" t="s">
         <v>108</v>
       </c>
@@ -1569,12 +1557,12 @@
         <v>103</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1597,7 +1585,7 @@
         <v>64</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="49" t="s">
         <v>84</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1610,7 +1598,7 @@
       <c r="M10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40" t="s">
         <v>76</v>
@@ -1622,12 +1610,12 @@
         <v>35</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1636,7 +1624,7 @@
       <c r="B11" s="37">
         <v>44308</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -1648,7 +1636,7 @@
         <v>61</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="49" t="s">
         <v>105</v>
       </c>
       <c r="J11" s="40" t="s">
@@ -1675,12 +1663,12 @@
         <v>25</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1689,7 +1677,7 @@
       <c r="B12" s="37">
         <v>44308</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -1703,7 +1691,7 @@
         <v>61</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="54" t="s">
         <v>98</v>
       </c>
       <c r="J12" s="40" t="s">
@@ -1732,27 +1720,27 @@
         <v>78</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="52"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1763,25 +1751,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1792,25 +1780,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="58"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1822,24 +1810,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="58"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1851,24 +1839,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1880,22 +1868,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="58"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1915,14 +1903,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="58"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1934,26 +1922,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="63" t="s">
+      <c r="U19" s="59" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="58"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1978,14 +1966,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2010,14 +1998,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="58"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -2042,14 +2030,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="58"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2069,14 +2057,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="58"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2096,14 +2084,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="58"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2115,26 +2103,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="63" t="s">
+      <c r="U25" s="59" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="58"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2159,14 +2147,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="58"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2191,14 +2179,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2223,14 +2211,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="58"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2255,14 +2243,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="58"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2287,14 +2275,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="58"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2319,14 +2307,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="58"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2351,14 +2339,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="58"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2383,14 +2371,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="58"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2415,14 +2403,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="58"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2447,14 +2435,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="58"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2479,14 +2467,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="58"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2511,14 +2499,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="58"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2538,14 +2526,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="58"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2565,14 +2553,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="58"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2597,14 +2585,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="58"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2629,14 +2617,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="58"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2656,14 +2644,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="58"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2683,14 +2671,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="58"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2719,14 +2707,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="58"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2758,14 +2746,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="58"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2797,14 +2785,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="58"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2836,14 +2824,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="58"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2878,14 +2866,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="58"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2897,23 +2885,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="59"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2922,26 +2910,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="58"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2953,23 +2941,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="60"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2981,23 +2969,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="60"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -3009,23 +2997,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="60"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -3037,23 +3025,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="60"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -3065,9 +3053,1848 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="75"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="47"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868345035586528</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="69"/>
+      <c r="U6" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="69"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="39">
+        <v>866192037845730</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="41">
+        <v>220000</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="69"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="69"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="69"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="69"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="69"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="69"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="69"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="69"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="69"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="69"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="69"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="48"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="48"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>3</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3106,25 +4933,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -3143,46 +4970,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -3200,14 +5027,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="56"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3224,100 +5051,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="74" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3328,10 +5155,10 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="39">
-        <v>868345035586528</v>
+        <v>862631039238471</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>65</v>
@@ -3340,20 +5167,20 @@
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="52" t="s">
-        <v>73</v>
+      <c r="I6" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>108</v>
       </c>
@@ -3361,77 +5188,49 @@
         <v>76</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="73"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
-        <v>44308</v>
-      </c>
+      <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="39">
-        <v>866192037845730</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>80</v>
-      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="42">
-        <v>220000</v>
-      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>35</v>
-      </c>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="73"/>
+      <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3444,23 +5243,23 @@
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="52"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="40"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="73"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3470,26 +5269,26 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="54"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="1"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="73"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3499,39 +5298,39 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="54"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="73"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -3542,25 +5341,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="73"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="58"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3571,27 +5370,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="73"/>
+      <c r="W12" s="69"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="52"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -3602,25 +5401,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="73"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -3631,25 +5430,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="73"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="58"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -3661,24 +5460,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="73"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="58"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3690,24 +5489,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="73"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3719,22 +5518,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="73"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="73"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="58"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3754,14 +5553,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="58"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3773,26 +5572,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="58"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3809,7 +5608,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3817,14 +5616,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3841,7 +5640,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3849,14 +5648,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="58"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3873,7 +5672,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3881,14 +5680,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="58"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3908,14 +5707,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="58"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3935,14 +5734,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="58"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3954,26 +5753,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="70" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="58"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3998,14 +5797,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="58"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -4022,7 +5821,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -4030,14 +5829,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -4062,14 +5861,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="58"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -4094,14 +5893,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="58"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4126,14 +5925,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="58"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4150,7 +5949,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4158,14 +5957,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="58"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4190,14 +5989,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="58"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4222,14 +6021,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="58"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4254,14 +6053,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="58"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4286,14 +6085,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="58"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4318,14 +6117,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="58"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4342,7 +6141,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4350,14 +6149,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="58"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4377,14 +6176,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="58"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4404,14 +6203,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="58"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4436,14 +6235,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="58"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4468,14 +6267,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="58"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4495,14 +6294,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="58"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4522,14 +6321,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="58"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4558,14 +6357,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="58"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4597,14 +6396,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="58"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4636,14 +6435,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="58"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4675,14 +6474,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="58"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4717,14 +6516,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="58"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4736,23 +6535,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="59"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4761,26 +6560,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="58"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4792,23 +6591,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="60"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4820,23 +6619,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="60"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4848,23 +6647,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="60"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4876,23 +6675,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="60"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4904,9 +6703,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4921,13 +6720,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4939,1799 +6731,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17" style="20" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
-    <col min="10" max="10" width="53" style="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="58" style="20" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="20"/>
-    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="48"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="49"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="49"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37">
-        <v>44308</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="39">
-        <v>862631039238471</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="73"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="73"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="73"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="73"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="73"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="73"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="73"/>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="73"/>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="73"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="73"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="73"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="73"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="50"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="50"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
-      </c>
-      <c r="W35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="10">
-        <f>SUM(V26:V36)</f>
-        <v>1</v>
-      </c>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="14"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="14"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="35">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="33"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>45</v>
-      </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="33"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="33"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="33"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="33"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
-      </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="33"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="33"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -6739,17 +6738,6 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6760,8 +6748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6793,43 +6781,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6874,394 +6862,664 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="37">
+        <v>44308</v>
+      </c>
       <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034681614</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="I6" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="75" t="s">
+      <c r="T6" s="42"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37">
+        <v>44308</v>
+      </c>
       <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183035868848</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="76"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44308</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>867717030424346</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="L8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="76"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37">
+        <v>44308</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183035913560</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="76"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="37">
+        <v>44308</v>
+      </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183035926109</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="41"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="76"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183038519125</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="M11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="76"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183038069469</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="75" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="37">
+        <v>44308</v>
+      </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="D13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868345035586528</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="76"/>
+      <c r="M13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" s="42"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="44"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="37">
+        <v>44308</v>
+      </c>
       <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
+      <c r="D14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="39">
+        <v>866192037845730</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="41">
+        <v>220000</v>
+      </c>
       <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="P14" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="76"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="37">
+        <v>44308</v>
+      </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
+      <c r="D15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="39">
+        <v>862631039238471</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>70</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="M15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="41"/>
+      <c r="O15" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -7286,11 +7544,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="44"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -7315,9 +7573,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -7369,13 +7627,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -7405,7 +7663,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7437,7 +7695,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7469,7 +7727,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7550,13 +7808,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -7618,7 +7876,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -7746,7 +8004,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7778,7 +8036,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -7874,7 +8132,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7906,7 +8164,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -7938,7 +8196,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8291,7 +8549,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -8332,9 +8590,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8343,10 +8601,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -8357,12 +8615,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8388,9 +8646,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8416,9 +8674,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8444,9 +8702,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,9 +8730,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8500,9 +8758,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8517,13 +8775,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8535,6 +8786,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
-    <sheet name="TG102V" sheetId="30" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="30" r:id="rId1"/>
+    <sheet name="TG102LE" sheetId="27" r:id="rId2"/>
     <sheet name="TG102SE" sheetId="29" r:id="rId3"/>
     <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -364,6 +364,21 @@
   </si>
   <si>
     <t>BT</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048288974</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thay module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS ( thiếu lk giứ lại)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -775,9 +796,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,19 +835,28 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1118,13 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="B6:S12"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1156,43 +1198,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -1237,99 +1279,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="70" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="75"/>
+      <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1339,12 +1381,14 @@
       <c r="B6" s="37">
         <v>44308</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44315</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E6" s="39">
-        <v>868183034681614</v>
+        <v>868345035586528</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>65</v>
@@ -1354,19 +1398,17 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="49" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -1381,15 +1423,17 @@
       <c r="R6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="79" t="s">
+      <c r="S6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="69"/>
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="60"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1398,12 +1442,14 @@
       <c r="B7" s="37">
         <v>44308</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44315</v>
+      </c>
       <c r="D7" s="38" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E7" s="39">
-        <v>868183035868848</v>
+        <v>866192037845730</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>65</v>
@@ -1412,24 +1458,26 @@
         <v>61</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>107</v>
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="41"/>
+        <v>111</v>
+      </c>
+      <c r="N7" s="41">
+        <v>220000</v>
+      </c>
       <c r="O7" s="40" t="s">
         <v>108</v>
       </c>
@@ -1437,297 +1485,167 @@
         <v>76</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="80"/>
+        <v>112</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="69"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="60"/>
+      <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44308</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="39">
-        <v>867717030424346</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="49"/>
-      <c r="L8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="41"/>
-      <c r="O8" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="80"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="60"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
-        <v>44308</v>
-      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="39">
-        <v>868183035913560</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="41"/>
-      <c r="O9" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>103</v>
-      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="80"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="60"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
-        <v>44308</v>
-      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="39">
-        <v>868183035926109</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="41"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>35</v>
-      </c>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="80"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="60"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37">
-        <v>44308</v>
-      </c>
+      <c r="B11" s="64"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="39">
-        <v>868183038519125</v>
-      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="M11" s="40"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="80"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="60"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37">
-        <v>44308</v>
-      </c>
+      <c r="B12" s="64"/>
       <c r="C12" s="64"/>
-      <c r="D12" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="39">
-        <v>868183038069469</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>100</v>
-      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="38" t="s">
-        <v>78</v>
-      </c>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="79" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="60"/>
+      <c r="W12" s="69"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1751,12 +1669,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="80"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="60"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1780,12 +1698,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="80"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="60"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1810,11 +1728,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="60"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1839,11 +1757,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="60"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1868,9 +1786,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="60"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="60"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1922,7 +1840,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="59" t="s">
+      <c r="U19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1958,7 +1876,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1990,7 +1908,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2103,7 +2021,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="70" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2299,7 +2217,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2331,7 +2249,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2427,7 +2345,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2459,7 +2377,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2491,7 +2409,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2844,7 +2762,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -3096,10 +3014,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3131,43 +3052,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -3212,99 +3133,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="59" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="70" t="s">
+      <c r="J5" s="75"/>
+      <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3314,12 +3235,14 @@
       <c r="B6" s="37">
         <v>44308</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44315</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E6" s="39">
-        <v>868345035586528</v>
+        <v>868183034681614</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>65</v>
@@ -3329,17 +3252,19 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="49" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="40"/>
+        <v>90</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -3354,17 +3279,15 @@
       <c r="R6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="69"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3373,12 +3296,14 @@
       <c r="B7" s="37">
         <v>44308</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44315</v>
+      </c>
       <c r="D7" s="38" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E7" s="39">
-        <v>866192037845730</v>
+        <v>868183035868848</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>65</v>
@@ -3386,187 +3311,331 @@
       <c r="G7" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="I7" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="40"/>
+        <v>85</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="41">
-        <v>220000</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>76</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44315</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>867717030424346</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="69"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
+      <c r="B9" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44315</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183035913560</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="N9" s="41"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="69"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="84">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="B10" s="85">
+        <v>44308</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="87">
+        <v>868183035926109</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="86"/>
+      <c r="M10" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="90"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="84"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="69"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44315</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183038519125</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="69"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44315</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183038069469</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3590,12 +3659,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="69"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3619,12 +3688,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="69"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3649,11 +3718,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="69"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3678,11 +3747,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="69"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3707,9 +3776,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="69"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="69"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3761,7 +3830,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="70" t="s">
+      <c r="U19" s="59" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3797,7 +3866,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3829,7 +3898,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3861,7 +3930,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3942,7 +4011,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="70" t="s">
+      <c r="U25" s="59" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -4138,7 +4207,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4170,7 +4239,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4266,7 +4335,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4298,7 +4367,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4330,7 +4399,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4683,7 +4752,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -4937,8 +5006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4970,43 +5039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -5051,58 +5120,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5127,23 +5196,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5153,7 +5222,9 @@
       <c r="B6" s="37">
         <v>44308</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44315</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>69</v>
       </c>
@@ -5195,7 +5266,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5226,7 +5297,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5255,7 +5326,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5284,7 +5355,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5313,7 +5384,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5342,7 +5413,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5371,7 +5442,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5402,7 +5473,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5431,7 +5502,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5460,7 +5531,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5489,7 +5560,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6720,6 +6791,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6731,13 +6809,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6748,7 +6819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -6781,43 +6852,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6862,58 +6933,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
@@ -6938,23 +7009,23 @@
       <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7008,7 +7079,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7069,7 +7140,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7124,7 +7195,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7183,7 +7254,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="42"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7236,7 +7307,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7289,7 +7360,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7346,7 +7417,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="42"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7405,7 +7476,7 @@
         <v>79</v>
       </c>
       <c r="T13" s="42"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="42"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7515,7 +7586,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7544,7 +7615,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8775,6 +8846,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8786,13 +8864,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="30" r:id="rId1"/>
-    <sheet name="TG102LE" sheetId="27" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="30" r:id="rId2"/>
     <sheet name="TG102SE" sheetId="29" r:id="rId3"/>
     <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -285,9 +285,6 @@
     <t>203.162.69.75,20075</t>
   </si>
   <si>
-    <t>Thay module GSM</t>
-  </si>
-  <si>
     <t>LE.2.00.---28.200624</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
   </si>
   <si>
     <t>Lỗi moudule GSM</t>
-  </si>
-  <si>
-    <t>Thay module GSM/GPS</t>
   </si>
   <si>
     <t>LE.1.00.---01.181025</t>
@@ -796,6 +790,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -833,30 +851,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1157,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1198,43 +1195,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -1279,99 +1276,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="59" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="70" t="s">
+      <c r="J5" s="83"/>
+      <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,10 +1382,10 @@
         <v>44315</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E6" s="39">
-        <v>868345035586528</v>
+        <v>868183034681614</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>65</v>
@@ -1398,21 +1395,23 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="49" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="40"/>
+        <v>88</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>82</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
@@ -1423,17 +1422,15 @@
       <c r="R6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="71" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="69"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1446,10 +1443,10 @@
         <v>44315</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E7" s="39">
-        <v>866192037845730</v>
+        <v>868183035868848</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>65</v>
@@ -1458,194 +1455,330 @@
         <v>61</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="41">
-        <v>220000</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>76</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="69"/>
-      <c r="U7" s="72"/>
+        <v>24</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44315</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>867717030424346</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K8" s="49"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="72"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="69"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
+      <c r="B9" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44315</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183035913560</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="N9" s="41"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>101</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="72"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="69"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="71">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="72"/>
+      <c r="B10" s="72">
+        <v>44308</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="74">
+        <v>868183035926109</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="73"/>
+      <c r="M10" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="77"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="71"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="69"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44315</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183038519125</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="72"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="69"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="37">
+        <v>44308</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44315</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183038069469</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="71" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1669,12 +1802,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="72"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="69"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1698,12 +1831,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="72"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="69"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1728,11 +1861,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="69"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1757,11 +1890,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="69"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1786,9 +1919,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="69"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="69"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1840,7 +1973,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="70" t="s">
+      <c r="U19" s="59" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1876,7 +2009,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1908,7 +2041,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2021,7 +2154,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="70" t="s">
+      <c r="U25" s="59" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2217,7 +2350,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2249,7 +2382,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2345,7 +2478,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2377,7 +2510,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2409,7 +2542,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2762,7 +2895,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -3014,13 +3147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3052,43 +3182,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -3133,99 +3263,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="70" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="83"/>
+      <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3239,10 +3369,10 @@
         <v>44315</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E6" s="39">
-        <v>868183034681614</v>
+        <v>868345035586528</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>65</v>
@@ -3252,23 +3382,21 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="49" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
@@ -3279,15 +3407,17 @@
       <c r="R6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="71" t="s">
+      <c r="S6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="69"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="60"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3300,10 +3430,10 @@
         <v>44315</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E7" s="39">
-        <v>868183035868848</v>
+        <v>866192037845730</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>65</v>
@@ -3312,330 +3442,194 @@
         <v>61</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>107</v>
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="41"/>
+        <v>109</v>
+      </c>
+      <c r="N7" s="41">
+        <v>220000</v>
+      </c>
       <c r="O7" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>76</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="72"/>
+        <v>110</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="69"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="60"/>
+      <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44308</v>
-      </c>
-      <c r="C8" s="37">
-        <v>44315</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="39">
-        <v>867717030424346</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="49"/>
-      <c r="L8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="41"/>
-      <c r="O8" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="72"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="60"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
-        <v>44308</v>
-      </c>
-      <c r="C9" s="37">
-        <v>44315</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="39">
-        <v>868183035913560</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="41"/>
-      <c r="O9" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>103</v>
-      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="72"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="60"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="85">
-        <v>44308</v>
-      </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="87">
-        <v>868183035926109</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="90"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="84"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="72"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="60"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37">
-        <v>44308</v>
-      </c>
-      <c r="C11" s="37">
-        <v>44315</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="39">
-        <v>868183038519125</v>
-      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="M11" s="40"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="72"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="60"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37">
-        <v>44308</v>
-      </c>
-      <c r="C12" s="37">
-        <v>44315</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="39">
-        <v>868183038069469</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>100</v>
-      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="38" t="s">
-        <v>78</v>
-      </c>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="71" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="60"/>
+      <c r="W12" s="69"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3659,12 +3653,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="72"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="60"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3688,12 +3682,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="72"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="60"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3718,11 +3712,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="60"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3747,11 +3741,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="60"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3776,9 +3770,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="60"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="60"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3830,7 +3824,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="59" t="s">
+      <c r="U19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3866,7 +3860,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3898,7 +3892,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4011,7 +4005,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="70" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -4207,7 +4201,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4239,7 +4233,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4335,7 +4329,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4367,7 +4361,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4399,7 +4393,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4752,7 +4746,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -5007,7 +5001,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5039,43 +5033,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -5120,58 +5114,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5196,23 +5190,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5242,7 +5236,7 @@
         <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K6" s="58" t="s">
         <v>70</v>
@@ -5253,7 +5247,7 @@
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
@@ -5266,7 +5260,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5297,7 +5291,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5326,7 +5320,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5355,7 +5349,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5384,7 +5378,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5413,7 +5407,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5442,7 +5436,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5473,7 +5467,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5502,7 +5496,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5531,7 +5525,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5560,7 +5554,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6791,13 +6785,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6809,6 +6796,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6819,8 +6813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6852,43 +6846,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6933,58 +6927,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
@@ -7009,23 +7003,23 @@
       <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7035,7 +7029,9 @@
       <c r="B6" s="37">
         <v>44308</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44315</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -7050,23 +7046,23 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
@@ -7079,7 +7075,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7094,7 +7090,9 @@
       <c r="B7" s="37">
         <v>44308</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44315</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -7108,26 +7106,26 @@
         <v>61</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>76</v>
@@ -7140,7 +7138,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7153,7 +7151,9 @@
       <c r="B8" s="37">
         <v>44308</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44315</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -7168,21 +7168,21 @@
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>76</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7208,7 +7208,9 @@
       <c r="B9" s="37">
         <v>44308</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44315</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -7222,26 +7224,26 @@
         <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P9" s="40" t="s">
         <v>76</v>
@@ -7250,11 +7252,11 @@
         <v>18</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="42"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7264,50 +7266,50 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="72">
         <v>44308</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="74">
         <v>868183035926109</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="H10" s="75"/>
+      <c r="I10" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40" t="s">
+      <c r="J10" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="73"/>
+      <c r="M10" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="77"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="71"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7320,7 +7322,9 @@
       <c r="B11" s="37">
         <v>44308</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="37">
+        <v>44315</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -7333,21 +7337,21 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="40" t="s">
-        <v>107</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>76</v>
@@ -7360,7 +7364,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7373,7 +7377,9 @@
       <c r="B12" s="37">
         <v>44308</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="37">
+        <v>44315</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -7388,23 +7394,23 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="40" t="s">
         <v>98</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>100</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>76</v>
@@ -7417,7 +7423,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="42"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7432,7 +7438,9 @@
       <c r="B13" s="37">
         <v>44308</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44315</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>68</v>
       </c>
@@ -7461,7 +7469,7 @@
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P13" s="40" t="s">
         <v>76</v>
@@ -7476,7 +7484,7 @@
         <v>79</v>
       </c>
       <c r="T13" s="42"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7489,7 +7497,9 @@
       <c r="B14" s="37">
         <v>44308</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44315</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>68</v>
       </c>
@@ -7502,7 +7512,9 @@
       <c r="G14" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="38" t="s">
+        <v>107</v>
+      </c>
       <c r="I14" s="49" t="s">
         <v>81</v>
       </c>
@@ -7512,26 +7524,32 @@
       <c r="K14" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="N14" s="41">
         <v>220000</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="P14" s="40" t="s">
         <v>76</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="T14" s="42"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7544,7 +7562,9 @@
       <c r="B15" s="37">
         <v>44308</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37">
+        <v>44315</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>69</v>
       </c>
@@ -7562,7 +7582,7 @@
         <v>71</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K15" s="58" t="s">
         <v>70</v>
@@ -7573,7 +7593,7 @@
       </c>
       <c r="N15" s="41"/>
       <c r="O15" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P15" s="40" t="s">
         <v>76</v>
@@ -7586,7 +7606,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7602,20 +7622,20 @@
       <c r="E16" s="39"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7766,7 +7786,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7798,7 +7818,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -8203,7 +8223,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8267,7 +8287,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8846,13 +8866,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8864,6 +8877,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -372,7 +372,7 @@
     <t>GSM,NCFW</t>
   </si>
   <si>
-    <t>Thay module GSM/GPS ( thiếu lk giứ lại)</t>
+    <t>Thay module GSM</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,30 +784,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,6 +821,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1162,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1195,43 +1171,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -1276,58 +1252,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1352,23 +1328,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1424,7 +1400,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1487,7 +1463,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1544,7 +1520,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1605,60 +1581,64 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="60"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="37">
         <v>44308</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="37">
+        <v>44336</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="84">
         <v>868183035926109</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="73"/>
-      <c r="M10" s="71" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73" t="s">
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="71"/>
+      <c r="Q10" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1713,7 +1693,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1772,7 +1752,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1803,7 +1783,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +1812,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1861,7 +1841,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1890,7 +1870,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2041,7 +2021,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2073,7 +2053,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2478,7 +2458,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2542,7 +2522,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -3121,13 +3101,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3139,6 +3112,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3182,43 +3162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -3263,58 +3243,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3339,23 +3319,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3411,7 +3391,7 @@
         <v>79</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3478,7 +3458,7 @@
         <v>79</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3507,7 +3487,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3536,7 +3516,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3565,7 +3545,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3594,7 +3574,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3623,7 +3603,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3654,7 +3634,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3683,7 +3663,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3712,7 +3692,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3741,7 +3721,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4972,6 +4952,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4983,13 +4970,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5033,43 +5013,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="51"/>
@@ -5114,58 +5094,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5190,23 +5170,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5260,7 +5240,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5291,7 +5271,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5320,7 +5300,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5349,7 +5329,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5378,7 +5358,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5407,7 +5387,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5436,7 +5416,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5467,7 +5447,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5496,7 +5476,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5525,7 +5505,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5554,7 +5534,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6785,6 +6765,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6796,13 +6783,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6813,8 +6793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6846,43 +6826,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6927,58 +6907,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
@@ -7003,23 +6983,23 @@
       <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7075,7 +7055,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7138,7 +7118,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7195,7 +7175,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7256,7 +7236,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="42"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7266,50 +7246,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="37">
         <v>44308</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="37">
+        <v>44336</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="84">
         <v>868183035926109</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="73"/>
-      <c r="M10" s="71" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73" t="s">
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="71"/>
+      <c r="Q10" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7364,7 +7348,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7423,7 +7407,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="42"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7484,7 +7468,7 @@
         <v>79</v>
       </c>
       <c r="T13" s="42"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7549,7 +7533,7 @@
         <v>79</v>
       </c>
       <c r="T14" s="42"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7606,7 +7590,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7635,7 +7619,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7786,7 +7770,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7818,7 +7802,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -8223,7 +8207,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8287,7 +8271,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8866,6 +8850,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8877,13 +8868,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
